--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/14_Batman_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/14_Batman_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11EB2890-48B2-4C8B-9781-ECDFCB5865AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4378BA4-350B-4F5B-A1C3-14FD6B9099B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89669F4D-E391-40F6-9C2B-9E315433770E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E34B0AC8-33E0-4B8F-A747-0908F25545E9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{16A190ED-6A5E-4826-BAFA-CBAEFB036F04}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{EA15A22D-AC8A-403D-8586-7D2731079A8C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{C812F026-89D7-4728-B47B-993B4209910F}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{08C22695-1823-4516-A9AA-4C77A3AE7234}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{CEB18A1F-7616-4452-B41F-A5EEA5DF5EEE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{295C573A-72D0-44A3-AAB7-A29F89500100}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{ED59912D-EABF-44F7-99EA-9F094F891038}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{02B8488D-FFFF-494C-9205-D46682E2E398}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEB5D6E-46A5-4959-8127-8806A1F5A555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C4145F-E359-4295-9BCB-BB04A1AC138E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2407,18 +2407,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F8009E6E-F103-40A0-92B2-142603D194CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D2E0B0F6-2DF9-40D6-AACF-D92553F5C3F0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EED6C82B-3934-4DEB-B1EC-C025EAEF0576}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3A93A4CA-37CA-4155-AF70-5DBA36A586C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4461C0D7-EA5D-4871-9B7A-DD492B770835}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{42994A2A-2AED-40C4-B917-AE77A8F17406}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9C4A7138-DCD9-4367-84DE-5E0945A57B56}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D76600BB-BA7C-4741-99B2-323E692FDDB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C5FB5660-888F-40B7-8DC9-429237B54B0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{40A3605F-B9F4-44CC-AF8D-99EB4C01FF2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AE13FE9F-C32A-4E23-9748-CB5FE4BF75FD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5A62C901-0A65-4770-B5C2-3BE1376AB023}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7F9710E7-FEE1-4D5A-BD1A-D3852E65E139}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7A5E4EE9-DF12-49FD-B5AB-7D05F3D52328}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{386DAB3F-1996-48BA-BBE6-B64896A03D54}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4BA9BADF-E7D2-44A9-99C5-37E91C58C410}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B5D59235-F119-494A-8304-42488857D0E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E8780416-F4DD-44B0-AA21-C9C58E04955C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{69225C72-BFBB-4213-99D3-8C6761F64C7B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8C7F04C2-0C31-4CC2-8A91-DA4C0A769984}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BDA383BA-8F0B-4E2D-BCE2-06831B0DE3CB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AD421E66-538F-449C-80BE-E39788E3057B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3989A24A-6F85-406B-917D-F1357C15E487}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8EED8437-3453-4DC5-9A0A-8B7A86AF9005}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2431,7 +2431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F656F5EC-31E7-449D-B3D5-F356E2A2152E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8392CF83-47CF-4869-BA9F-15065120715B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3580,18 +3580,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{528F43C1-0E14-43F3-9C87-9F3F3715F07B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{848D0504-1C63-4961-B030-969B6BA76CEB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4DB4446A-BA44-4A22-88BA-38A52A9EFD0E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8DEE1C72-4D68-43CF-9956-2F82E4AC1D96}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DAFD8A53-DF8D-4890-A15D-4558FAA26D58}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CCB13779-F876-40B7-B401-87282574CDB7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{16D57B62-19E7-4813-9281-16A76C43BC4B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{202427FF-4A12-4CFD-84B3-7462794E182A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3B1280EF-5B1A-496B-96B6-D2F9F25F869B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{01D4B77C-F7E8-4B5C-AB3F-8B43E90DD0B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3036F9F7-E9F5-4919-BB59-D709050FA8F2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ED43E11B-747E-4D21-A7CE-4C0119E1BC47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5F5F8E0A-994C-4178-B837-3F3DD543F6AB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DDB8C79B-762D-458C-8BCD-6C15AD0481ED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{82D5FC94-0053-4020-B109-2DD8979586E7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ECA68625-A928-4065-8371-16B1D99FEC4F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F71EC125-EBD1-4977-AE96-17C8CC33C652}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D1C94C2B-DCE3-4A7F-BF33-03D2A31A6223}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E2E512B8-CE28-4FF4-86C8-3E133D893548}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{178288D4-C959-419E-8921-AB3AF78BE96D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5950E9B7-F9BE-4D1B-9606-E14804AB76F5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6ED5D272-DA02-47B5-916B-71B7F0317B38}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9A1A68E1-8331-4AD0-AA65-B79AB499BFC4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B8317E0C-D7C1-4D55-B386-03B23F8AD92F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3604,7 +3604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB606239-FC56-441C-B20B-A9778A7985F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4297FAD-03D6-4F77-8EF5-5495809650CF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4753,18 +4753,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EA0104E1-039F-4F3D-B0D0-27D166850B66}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BEDB9929-83CB-4D46-B437-AE6B5055A710}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{82A6A4AA-7ECA-45D9-9BDB-7CDD2224B575}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C02D1BAC-1DA5-41B8-83EA-6EF33FCEA231}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4A83EEFA-360F-44AF-9839-B3704F48DCA3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DEFA4F09-F1E3-4D76-953A-808DBD07FF26}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{52302A6D-338A-4983-A018-25DA4B38DD93}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{038222FC-4ABA-47D3-B306-0EBBDA79A25D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E2675A6B-045F-44A5-8D59-761F66B51271}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F0D7503F-6412-466C-BB46-74622F4D78DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BE49CADA-E9DF-463C-8078-12479AF3C84F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{394E8ED9-75DD-41E3-B616-15012A8ED24C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{60B00B31-2FF3-4B86-BDAA-F2324A0900F3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EB924442-7CC5-4DA3-B68C-53F8C52E9630}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5EB56D2F-0E42-4750-B386-3BE100E462B4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9D4F6AD6-E3D1-44BB-83CD-35A18B741906}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9D050E92-2E99-450A-9BC0-BD5499F49749}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ADF1EF72-0ED7-486C-86B3-79F1DE2374AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{324DA629-6B2F-4E8B-8346-6F4772DF004F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F3ACD65E-4950-4564-91B8-5C9AA813A916}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ECB45EFD-60CD-4E11-83C1-4411A7A38D2C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1B216FCF-311D-4891-9ADF-46A7CC31CDA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{54F830F5-694C-4163-8EAB-6AF5250EA9F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{95FC4AF2-A773-4079-B50E-3BAB115AE7C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4777,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53054A21-B077-4778-8F25-A31BEBE4AB2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8277628-6DEE-43D3-8C44-9A228FA26502}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5926,18 +5926,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C2A8E1C6-07D4-49CB-894F-CDA771FEAE73}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5B6EED5F-E9BF-43A0-B1C4-927CE84A3278}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F13CA9DD-022F-47A7-A2DD-90AF9F837C91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6F7D8394-3A1B-49C6-AF5C-6931C77A027E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{562F8708-FBF6-423C-A790-AAF624EDC744}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D8F9C806-F616-420C-9A69-D790A6B1C748}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{13958D55-AAB5-4613-A621-F365A036850A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3BBA48E3-FA37-4109-82D8-76B838EF1E90}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4EDBEE3E-CA4E-4D9D-A587-C112BEEB4BF6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9D3F5525-B5B5-4E63-A33D-C5F01B7F0F06}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{27A95C22-C7DF-462D-8B06-84A8BC89F833}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ADBCD71D-4538-40D6-9508-4B48023B30E6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6A0BF91B-E493-4613-92E7-B6C24A982898}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4AC90FBE-10D1-49F6-98C9-37B7899BF050}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{60FE42F1-84EB-484A-B416-9873671E6E67}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9A7569F6-C076-4B55-BD0B-48EE62680F8B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7B995153-B111-4F89-BA23-8D5BF327F730}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{01822936-71B2-4FDC-943A-8F3CF82B404D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{63B93BE0-96F3-4D7D-8208-832A964EEA70}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{018A7641-8866-4ECD-8E6E-3E12C8E3C8DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A8A9CD4D-2344-4FC4-B15D-8C65F39B709D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A0D45911-635C-408E-91AF-D074B9CF6D8C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1A0057EC-8A97-4410-8326-C1BE360D6119}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7B80F030-E90E-4C43-BF9D-FA9CA1C7E781}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5950,7 +5950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A022320D-3E59-4BD7-AE67-D11E6D9099EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD59196-D4F9-4117-B116-3B92E5FDE289}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7119,18 +7119,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{36BF4326-B9A5-4DD4-AEF3-453F939F5AC9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D34B7BCC-8428-43B6-92CB-534E807DCC9F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7B0B2C7D-2B78-4234-B372-9744D099F085}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5F175ADC-0B7C-4D64-8E43-E5B1385FB7AA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4E29F69E-DBC9-4954-9B5E-F7CAB7FAE52C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AFD5F2A8-8CD5-4CB4-941A-AE741681AA9D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E6F8329C-D6F0-4382-9DEE-A8BFE6EB132F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{518638C3-C9B2-4F3E-9668-AB3FF74BD787}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{472B43CA-2063-4325-8CA5-7520AE61B4FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ED049902-6AB3-4CD1-88E3-8E888B2B4634}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BDABA724-3811-4FCA-909E-BFD00D1E604D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{87FEFEE3-C655-4C6F-96F2-FD688B8D0150}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{02A97407-C090-4349-99C6-2E434D7DF848}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B876214F-3F89-4C9B-9BA3-657AA8DD03DC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{257B3523-E054-44B1-80A2-927E547CDB4D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{96AB8FF7-F2C4-4E44-83E7-8C959F4B2266}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{32B4EDF1-5CC5-4249-8C48-236BF07C80D7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8D4E630B-56C4-4C61-85BD-85CE23C5B97D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EF50E402-6AE9-45FF-A3BD-9B4E7DFAB853}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0AD45974-30F6-427B-AA87-5B1E122ABD3C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3C2A05F9-CCD5-4ED2-B1F6-40564C7BFE9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5BD5EB8F-981D-42F9-8993-CE9C7096C737}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{50017FA6-3B24-42E1-AC02-1B049441E7D3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{15BBC1A2-6DBB-4786-A0EE-77B13E8A946B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7143,7 +7143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534B0BB2-719B-4432-B32B-89B4996A8E2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D381E4-B17D-4641-8A60-559B0B48F2A1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8306,18 +8306,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6454714E-78B2-4526-9CD6-52463DE3523C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8ED54D7E-8E3F-4044-A863-7CB66A9ABEB2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{83B9B442-4229-40B6-ABC8-6A633C0327E4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1D564CFE-4F04-4757-AAC1-3FF2C2E74D6B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{603AC043-9CA5-4478-A179-AF418EAAB650}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{811418CB-6336-4B24-B60C-D428D485BD02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1B14092C-1EB1-45D8-AFD1-9420B32782DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{327E244A-7CE8-419D-ADD0-7BF3F1F3C827}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{896EFA10-3929-4FAE-B052-EC94A94AFF66}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{31398755-E759-4DD1-B5B6-2985CDAAEEF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0527F3F0-FBD9-4F30-A63C-6CE12BAB3221}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{696972FA-EC3F-43E3-B9EC-896EB94488EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{505035BF-4139-4D8D-AE57-DB42E130A696}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4DBBBDF6-D2DF-4F0A-8B8E-A01C072E5E83}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{368EC545-10D1-42C9-AF24-7996C6B7FE25}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{06BEB2D4-2FA7-45D9-A70B-1BDF60A05F56}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CE98D128-AE8E-4D68-B307-E4CD23B2C60C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5836B419-C691-443D-B77E-B9FBE5464C56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8F775516-D3C6-4A78-952E-EFB7DD4B1542}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{27A7BBB6-A7D5-42ED-B685-7B54E888ED22}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5B1F4BF3-C533-4B39-9F18-FA584A08FC69}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CFF18412-99C4-4447-9278-40747A4541E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E5A08740-B177-4786-B1E9-CF85B80FED83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AD271883-946D-4391-AAFC-D3614EBB5523}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8330,7 +8330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80BE394-53A1-4DEA-BA33-5D404E63DEB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992BF5F0-E6EB-4821-98BF-98B4E814DBF7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9493,18 +9493,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C161CAFC-B191-4EAD-95D6-671240BC8F5E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{722EE808-3400-4519-AD75-02F4FE5A34D3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E98FB1FB-8B06-4B92-8112-FC555BEAA1ED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9919C768-11FB-4598-8B50-43A6C23E8C96}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B6D58F35-91B3-4D1A-B2A2-6F599D922441}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{756E4EAC-156F-4444-96BE-45FC2F58A4E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0EF1E72D-004E-4986-B2E9-34C4F32CB71B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{39520238-DD97-4F78-B9E8-169EC8DC45A3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E75CAC05-196A-4DEB-91F3-B808207EC4E2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9DD61680-DC28-499C-AF95-4DC8F5ACD129}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{63E4587F-2228-4003-8A58-C464DCBD86B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E3FDF863-8271-4F3F-B11F-1BB7C1B590B7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B3C9C843-CE00-4D6F-BC59-E0CD76740A54}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0E7D167D-1B47-4FD3-B5B2-3FC709E47730}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E93026CD-D20B-462E-8945-CBF3E75C6248}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{93628CBC-0553-44B9-82B6-9255338EEB38}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2AA58CDD-6777-4F57-8FD9-55C5DD05778E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{65413171-C8F1-44EF-A836-14A438F83C91}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{13B54BEF-9992-4602-A510-A81D723FFCEF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{85ACAA7F-74CE-45E7-A965-86B156C22DEC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{34AE6664-8429-4210-B4E9-5F808728AB40}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CCC789DC-308A-48DE-A8AE-DAC26B6E4D7B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{32D6955D-C5D8-452C-B647-50496EB3461B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E26660AA-5C54-49E3-B320-6F2A4CCE229A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9517,7 +9517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53F783-1BA8-42EB-B92A-C035B7E1B603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3415E263-B20C-4A03-8808-9BAAC04D0BD8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10678,18 +10678,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{09DDF38B-9CF1-467F-96FA-A8DF4A2EAB23}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9D53EE3B-D94C-4988-B846-F03F52AE5D5D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DC411A38-C65A-4C43-84B3-067BC976B039}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{19D9419F-419C-4E01-A904-ADF445CAD9AF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{27BCB7EC-3B0A-4682-BFBF-70FB95B3C2A7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{861AA8D1-6CE1-479B-9B7B-7BE44C586850}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{31C93F7D-3DAF-4828-971A-5A1B843AA4CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C5056BC4-C99C-4538-A39F-9D4A69B308DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4E9FA1BB-48B8-4FA3-8325-5CB2D84EAA3C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0D1C098E-E9CD-45FF-A8CB-9721AF320235}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C62CA720-E9AC-4C47-958F-7C380F63FBB0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{23C39E31-C654-4C4A-8F99-B3689A8E2DB0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{43A010C8-5FEA-49BA-A841-D76DB3C9B11F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B8EFD605-CF53-45A1-BAC2-EB72B8A84CD7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{69393C13-655A-4B5F-BAD6-877E9A04CE9D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{80729B58-18C8-4715-B734-EBCFBA364E51}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B2996110-69F4-44FB-8DD1-4BFF455BA367}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ED6EFD8D-B489-474A-B3E2-E4FB60250117}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{10AA8614-1AA1-4739-8AE9-F4F543F2B687}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2715C7C1-4DD5-438D-A755-76EE470951CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3D2637E0-FCE6-4DB4-8B87-50F48A78AC77}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{073BDC7E-755E-4D66-B78F-C29C7E44CC35}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{99D63B60-37FC-49E6-BEE3-477943330FA7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6A6D9981-495B-44E6-8FD5-81B33C3014B7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10702,7 +10702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DBFC24-8FF3-4734-A45B-FFE17E80A032}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C38A922-7F7A-4825-A752-5F69638FC71B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11859,18 +11859,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{076CE4D6-009F-4319-A867-9DFD4E32AFB8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{91ACEE87-E407-47FD-B588-F9F3A95DCAE5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3976F60A-5CBC-4F75-A00B-9A5F6BCB7C77}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{87A23664-20D2-4F5D-8DFE-1F750BBB1A00}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D3FC3D5B-87F1-4253-A479-8E05E80F5BBF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6B8BFD08-F109-4C2B-B4F8-539C608F8B34}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BE5446A7-FB89-4A73-A6CB-A7CDFCD483AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D4BCEAA4-D92B-4340-8ACE-23A371296F8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{75CEA72C-551A-4CFA-ABE8-9D354C64095A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{669F1462-83B3-4F66-9A55-D9276749E952}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A060CBC8-8818-4D78-93CC-242A2184CD64}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8F80D3CE-7791-423C-9808-AE971A996CC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{346B3BDD-9DCC-464E-AEB1-DFAB547882D0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0F83B01F-4470-4F3A-941F-463F6A9A5015}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1CC2F60C-607D-44F4-A9DF-04E4AB4975D2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{411DB75C-8EC5-471F-ADEC-546CEDCC50B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DFECF5E5-7F8A-4C04-A931-785B927E3A2F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{006B875F-BA68-4261-9527-0C61001382CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BF4DD84B-0D3E-4278-8D35-A6B5CB7033C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3BA2CDEB-D106-4CE3-8301-EB07B1805D6B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{49C858EE-B65E-47CD-B7C7-9798AECEF939}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{21C1201D-79E9-46AC-B37E-0EC27D2D42D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0BDEFF94-19C7-4A3B-A330-F4496DEDEEC0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E6A8986D-9CFB-4195-B447-3459F1A55836}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11883,7 +11883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0614DC88-8ED5-4585-AF3A-910A2DFE95EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B263A570-BF00-4362-8DF6-0C34FEE29D79}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13036,18 +13036,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D0FA7DAC-428D-4148-88F4-7D48637CF298}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BE484E61-2618-4427-A1FE-378D72CE900E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{10821B2D-9A0B-4B4B-8960-6CD0A54721C7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E4490B33-E523-4E89-81F1-A3791CB53CCC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EEF6ACB2-5484-4789-9F89-526B99FF857C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C30F4217-FCA9-413E-8BCC-F39324CEAED2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C59E9ED6-445C-4106-A58D-2C5AFDD214F8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{80652BA0-1AFF-41A9-8CC9-16A7C0CE1073}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4492A1AE-79AC-402B-B7B4-F7DB19768E0D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5007DC36-32D7-4B2D-81EB-F9A783D11C01}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5F3BB320-D58E-4EDF-AA8B-7E1DBA670B2A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC3A3B57-C539-4055-B1DE-82D4081C53B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1B17FF6C-23EE-45BB-99A6-5E285A42F226}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AE7EE2AC-5658-48DD-A4A0-5E0B8A94A331}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4E73733C-381C-455D-BC81-3E7043B9E567}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F579203C-5721-49E9-9339-D1609774112B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D298645A-F59F-49C7-A5BB-86AE98A47377}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F1B3BC5B-392F-49A2-BA0B-51CB129B69E1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{95AB6C51-606E-412E-8876-C33CC2C916EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0EF92DF6-2B51-4519-B39C-BC3C2EF5F1D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6C5AEBE1-F959-4E2F-83F1-2A6CFE5B1BB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E7372D5F-BEA1-4670-970B-AD1C7CEFA10B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B6078E13-1225-487B-ACA9-B4B727DCFDE7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D8054173-7FC2-446C-BE7E-B97C7B9B2288}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13060,7 +13060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE5EFB-4A4A-4A81-BE54-112533C1ED38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C91BB5-16FB-4FD4-949A-C38C03708348}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14209,18 +14209,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C08C6C19-BE05-444A-80D9-C06F680083B0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2A6B1F57-E273-4F81-A171-0A49FB570770}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9B382BBF-7793-4566-B34A-5790101D8E44}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9F709362-7D5E-4D61-98B7-18745EF84746}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{15126575-AF04-4A5E-B824-E7F8D8649E16}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2207FAAC-F547-42BA-AF0C-BAB41E77D057}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8215E71A-C52D-4D3D-A793-3F9659D038FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{087E99C5-502A-4165-BBC1-28F650366093}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F34B1CE1-16BE-45D1-AC9E-F88113648AED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9AE1870F-5062-4039-A7D9-44834984F11D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{02C56500-86B4-4135-911D-AC697022D14D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AF7E8BFF-AE57-4802-8F7C-FFA9B2B6FA3D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DB340063-0891-49DA-BDFE-2D5E210D902D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FD5F3C27-6D77-4D81-9FA4-AAFF957A8342}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E4FB6926-66CD-4E98-AD3C-D982A37CC53A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{83347A4E-6E09-4BF4-A3A3-1850E82C6496}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9DD50B2E-DBF0-4AEA-A2E8-48E1F782CEC9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{20D26412-AF30-411B-A875-F2B2D86B7C4A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5EB48F6A-0F9E-4D4E-9D8A-72D05EA56327}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6D2BF83B-BAC4-4F5D-8331-E72D72B3ACEC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8C54F87B-5A0A-43A2-AF3A-962A197D5D88}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FAB07AE7-C048-47C8-A3C4-6E08D0543CFE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4AA18F6B-3524-47F4-AF5A-7833678D47E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BE8E91D9-71E9-4ED4-B08E-BC6AA0A185AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14233,7 +14233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2D7923-B20B-4828-B4AC-255867A2F10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA761EC3-0CC5-4EF8-97BD-364C745E1B3B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15382,18 +15382,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D5A67438-D25F-4DEA-BCBD-C809C168C01A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2807A5F6-96D8-459E-AEA1-870D603106D6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2BB2DE4B-96EA-46A5-A8F3-5A586FD68492}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5F9F04D8-A848-4B19-9945-E40CFC89922F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EBBF49AC-3FFD-4927-BBEE-C84DB01BD51F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5CCED5D9-FEF0-4A3F-9A33-8015134EF34E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{55571F83-1DE9-4918-9B76-8EBCF70A2889}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{86FEDB05-C230-44B1-8895-39C1955888BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9A03B147-EF96-4DC3-A0F2-C4038AC8B39D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DC96751E-0C49-4CC7-AF28-18EA0A201DF5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4842E49A-C923-48E6-8EA5-47616419A060}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7DC4FE6E-D588-4D7E-9D1B-4F01313AB8D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8F030C3F-549B-49CF-93C2-74F3DF72AE81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0AE9B48E-E3BC-43DF-9C1D-75B5ADE191C5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{335B6328-561B-4933-8941-E6F22D1D4C9D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9B3447C3-83BC-4605-8113-F5B2FCB8CF19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D4573F16-740D-4B1B-B4B5-76AFD963CBC9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4E2A1F36-6BBC-4853-A907-C5543D1D97C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2FB25D84-84D7-4C1E-9A5F-1C56829DC279}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A13B1190-8EB3-41C6-AB98-258D4D95B979}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{24C9DB07-FB63-4AF3-BC9C-E673D0BD4C03}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{246753BB-4795-4B07-8CCC-DFA4F790555F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C64F6B84-108D-4D06-974E-160983A213B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{23E8DE65-5241-4E46-ADC7-75D2089880EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
